--- a/Tasas/Utils/Utils.xlsx
+++ b/Tasas/Utils/Utils.xlsx
@@ -7,6 +7,7 @@
     <sheet state="visible" name="ponderar" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="grp.lab" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="tasas.w" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="import" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="1434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="1447">
   <si>
     <t>id</t>
   </si>
@@ -4316,6 +4317,45 @@
   </si>
   <si>
     <t>mh_col.emnr.inf_w.3t22</t>
+  </si>
+  <si>
+    <t>arch</t>
+  </si>
+  <si>
+    <t>https://github.com/AlfCano/enoe/raw/devel/Salidas/ENOE2017_3t_SCC.RData</t>
+  </si>
+  <si>
+    <t>sc3t2017</t>
+  </si>
+  <si>
+    <t>https://github.com/AlfCano/enoe/raw/devel/Salidas/ENOE2018_3t_SCC.RData</t>
+  </si>
+  <si>
+    <t>sc3t2018</t>
+  </si>
+  <si>
+    <t>https://github.com/AlfCano/enoe/raw/devel/Salidas/ENOE2019_3t_SCC.RData</t>
+  </si>
+  <si>
+    <t>sc3t2019</t>
+  </si>
+  <si>
+    <t>https://github.com/AlfCano/enoe/raw/devel/Salidas/ENOE2020_3t_SCC.RData</t>
+  </si>
+  <si>
+    <t>sc3t2020</t>
+  </si>
+  <si>
+    <t>https://github.com/AlfCano/enoe/raw/devel/Salidas/ENOE2021_3t_SCC.RData</t>
+  </si>
+  <si>
+    <t>sc3t2021</t>
+  </si>
+  <si>
+    <t>https://github.com/AlfCano/enoe/raw/devel/Salidas/ENOE2022_3t_SCC.RData</t>
+  </si>
+  <si>
+    <t>sc3t2022</t>
   </si>
 </sst>
 </file>
@@ -4391,6 +4431,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -16492,4 +16536,78 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Tasas/Utils/Utils.xlsx
+++ b/Tasas/Utils/Utils.xlsx
@@ -8,6 +8,8 @@
     <sheet state="visible" name="grp.lab" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="tasas.w" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="import" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="df.factors" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="labels" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4289" uniqueCount="2026">
   <si>
     <t>id</t>
   </si>
@@ -4194,6 +4196,1905 @@
   </si>
   <si>
     <t>sc3t2022</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>vars</t>
+  </si>
+  <si>
+    <t>labels</t>
+  </si>
+  <si>
+    <t>p3g1_1</t>
+  </si>
+  <si>
+    <t>Pregunta 3g Opción 1: trabajadores que reciben un pago?</t>
+  </si>
+  <si>
+    <t>p4f</t>
+  </si>
+  <si>
+    <t>Pregunta 4f Entonces, ¿en dónde se realizan las actividades de este negocio?</t>
+  </si>
+  <si>
+    <t>p4b</t>
+  </si>
+  <si>
+    <t>Pregunta 4b SÓLO PARA EL ENTREVISTADOR</t>
+  </si>
+  <si>
+    <t>p5f1</t>
+  </si>
+  <si>
+    <t>Pregunta 5f Opción 1: enero</t>
+  </si>
+  <si>
+    <t>p5f2</t>
+  </si>
+  <si>
+    <t>Pregunta 5f Opción 2: febrero</t>
+  </si>
+  <si>
+    <t>p5f3</t>
+  </si>
+  <si>
+    <t>Pregunta 5f Opción 3: marzo</t>
+  </si>
+  <si>
+    <t>p5f4</t>
+  </si>
+  <si>
+    <t>Pregunta 5f Opción 4: abril</t>
+  </si>
+  <si>
+    <t>p5f5</t>
+  </si>
+  <si>
+    <t>Pregunta 5f Opción 5: mayo</t>
+  </si>
+  <si>
+    <t>p5f6</t>
+  </si>
+  <si>
+    <t>Pregunta 5f Opción 6: junio</t>
+  </si>
+  <si>
+    <t>p5f7</t>
+  </si>
+  <si>
+    <t>Pregunta 5f Opción 7: julio</t>
+  </si>
+  <si>
+    <t>p5f8</t>
+  </si>
+  <si>
+    <t>Pregunta 5f Opción 8: agosto</t>
+  </si>
+  <si>
+    <t>p5f9</t>
+  </si>
+  <si>
+    <t>Pregunta 5f Opción 9: septiembre</t>
+  </si>
+  <si>
+    <t>p5f10</t>
+  </si>
+  <si>
+    <t>Pregunta 5f Opción 10: octubre</t>
+  </si>
+  <si>
+    <t>p5f11</t>
+  </si>
+  <si>
+    <t>Pregunta 5f Opción 11: noviembre</t>
+  </si>
+  <si>
+    <t>p5f12</t>
+  </si>
+  <si>
+    <t>Pregunta 5f Opción 12: diciembre</t>
+  </si>
+  <si>
+    <t>p5f13</t>
+  </si>
+  <si>
+    <t>Pregunta 5f Opción 13: Varían los meses en que trabaja</t>
+  </si>
+  <si>
+    <t>p5f14</t>
+  </si>
+  <si>
+    <t>Pregunta 5f Opción 14: Trabaja todos los meses del año</t>
+  </si>
+  <si>
+    <t>p5f15</t>
+  </si>
+  <si>
+    <t>Pregunta 5f Opción 15: Tiene menos de un año en este trabajo</t>
+  </si>
+  <si>
+    <t>p5f99</t>
+  </si>
+  <si>
+    <t>Pregunta 5f Opción 99: no sabe</t>
+  </si>
+  <si>
+    <t>l_nac_c</t>
+  </si>
+  <si>
+    <t>Pregunta 11 Clave de lugar de nacimiento</t>
+  </si>
+  <si>
+    <t>r_def</t>
+  </si>
+  <si>
+    <t>Resultado definitivo de la entrevista</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>Número de la localidad</t>
+  </si>
+  <si>
+    <t>mun</t>
+  </si>
+  <si>
+    <t>Número de municipio según entidad</t>
+  </si>
+  <si>
+    <t>est</t>
+  </si>
+  <si>
+    <t>Estrato nacional y estatal</t>
+  </si>
+  <si>
+    <t>est_d_tri</t>
+  </si>
+  <si>
+    <t>Estrato de diseño trimestral</t>
+  </si>
+  <si>
+    <t>est_d_men</t>
+  </si>
+  <si>
+    <t>Estrato de diseño mensual</t>
+  </si>
+  <si>
+    <t>ageb</t>
+  </si>
+  <si>
+    <t>Número de ageb del marco nacional</t>
+  </si>
+  <si>
+    <t>t_loc_tri</t>
+  </si>
+  <si>
+    <t>Tamaño de localidad trimestral</t>
+  </si>
+  <si>
+    <t>t_loc_men</t>
+  </si>
+  <si>
+    <t>Tamaño de localidad mensual</t>
+  </si>
+  <si>
+    <t>Ciudad autorrepresentada</t>
+  </si>
+  <si>
+    <t>Entidad</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>upm</t>
+  </si>
+  <si>
+    <t>Unidad primaria de muestreo</t>
+  </si>
+  <si>
+    <t>d_sem</t>
+  </si>
+  <si>
+    <t>Distribución semanal</t>
+  </si>
+  <si>
+    <t>n_pro_viv</t>
+  </si>
+  <si>
+    <t>Número progresivo de la vivienda</t>
+  </si>
+  <si>
+    <t>v_sel</t>
+  </si>
+  <si>
+    <t>Vivienda seleccionada</t>
+  </si>
+  <si>
+    <t>n_hog</t>
+  </si>
+  <si>
+    <t>Número de hogar</t>
+  </si>
+  <si>
+    <t>h_mud</t>
+  </si>
+  <si>
+    <t>Hogar mudado</t>
+  </si>
+  <si>
+    <t>n_ent</t>
+  </si>
+  <si>
+    <t>Número de entrevista o visita</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>Periodo</t>
+  </si>
+  <si>
+    <t>n_ren</t>
+  </si>
+  <si>
+    <t>Número de renglón</t>
+  </si>
+  <si>
+    <t>c_res</t>
+  </si>
+  <si>
+    <t>Pregunta 6 Condición de residencia</t>
+  </si>
+  <si>
+    <t>par_c</t>
+  </si>
+  <si>
+    <t>Pregunta 7 Clave de parentesco</t>
+  </si>
+  <si>
+    <t>Pregunta 8 Sexo</t>
+  </si>
+  <si>
+    <t>eda</t>
+  </si>
+  <si>
+    <t>Pregunta 9 Edad</t>
+  </si>
+  <si>
+    <t>nac_dia</t>
+  </si>
+  <si>
+    <t>Pregunta 10 Día de nacimiento</t>
+  </si>
+  <si>
+    <t>nac_mes</t>
+  </si>
+  <si>
+    <t>Pregunta 10 Mes de nacimiento</t>
+  </si>
+  <si>
+    <t>nac_anio</t>
+  </si>
+  <si>
+    <t>Pregunta 10 Año de nacimiento</t>
+  </si>
+  <si>
+    <t>cs_p12</t>
+  </si>
+  <si>
+    <t>Pregunta 12 ¿Sabe leer y escribir un recado...?</t>
+  </si>
+  <si>
+    <t>cs_p13_1</t>
+  </si>
+  <si>
+    <t>Pregunta 13 ¿Hasta qué año aprobó... en la escuela?</t>
+  </si>
+  <si>
+    <t>cs_p13_2</t>
+  </si>
+  <si>
+    <t>cs_p14_c</t>
+  </si>
+  <si>
+    <t>Pregunta 14 Clave de la carrera</t>
+  </si>
+  <si>
+    <t>cs_p15</t>
+  </si>
+  <si>
+    <t>Pregunta 15 ¿Qué estudios le pidieron a ... para ingresar a esta carrera?</t>
+  </si>
+  <si>
+    <t>cs_p16</t>
+  </si>
+  <si>
+    <t>Pregunta 16 ¿...Terminó los estudios o materias de esta carrera?</t>
+  </si>
+  <si>
+    <t>cs_p17</t>
+  </si>
+  <si>
+    <t>Pregunta 17 ¿... Asiste actualmente a la escuela?</t>
+  </si>
+  <si>
+    <t>n_hij</t>
+  </si>
+  <si>
+    <t>Pregunta 18 En total cuántas hijas e hijos que nacieron vivos ha tenido</t>
+  </si>
+  <si>
+    <t>e_con</t>
+  </si>
+  <si>
+    <t>Pregunta 19 Estado conyugal</t>
+  </si>
+  <si>
+    <t>cs_p20a_1</t>
+  </si>
+  <si>
+    <t>Pregunta 20a Entidad o país de residencia hace un año</t>
+  </si>
+  <si>
+    <t>cs_p20a_c</t>
+  </si>
+  <si>
+    <t>Pregunta 20a Clave de entidad o país de residencia hace un año</t>
+  </si>
+  <si>
+    <t>cs_p20b_1</t>
+  </si>
+  <si>
+    <t>Pregunta 20b Municipio de residencia hace un año</t>
+  </si>
+  <si>
+    <t>cs_p20b_c</t>
+  </si>
+  <si>
+    <t>Pregunta 20b Clave de municipio de residencia hace un año</t>
+  </si>
+  <si>
+    <t>cs_p20c_1</t>
+  </si>
+  <si>
+    <t>Pregunta 20c Causa de la migración</t>
+  </si>
+  <si>
+    <t>cs_ad_mot</t>
+  </si>
+  <si>
+    <t>Pregunta 21 Motivos de la ausencia</t>
+  </si>
+  <si>
+    <t>cs_p21_des</t>
+  </si>
+  <si>
+    <t>Pregunta 21 Especificación de otro motivo</t>
+  </si>
+  <si>
+    <t>cs_ad_des</t>
+  </si>
+  <si>
+    <t>Pregunta 22 ¿A qué estado de la república o país se fue ...?</t>
+  </si>
+  <si>
+    <t>cs_nr_mot</t>
+  </si>
+  <si>
+    <t>Pregunta 23 ¿Cuál es el motivo principal por el que llegó ...?</t>
+  </si>
+  <si>
+    <t>cs_p23_des</t>
+  </si>
+  <si>
+    <t>Pregunta 23 Especificación del otro motivo</t>
+  </si>
+  <si>
+    <t>cs_nr_ori</t>
+  </si>
+  <si>
+    <t>Pregunta 24 ¿De qué estado de la República Mexicana o país vino ...?</t>
+  </si>
+  <si>
+    <t>ur</t>
+  </si>
+  <si>
+    <t>Urbano/Rural</t>
+  </si>
+  <si>
+    <t>zona</t>
+  </si>
+  <si>
+    <t>Zona salarial</t>
+  </si>
+  <si>
+    <t>salario</t>
+  </si>
+  <si>
+    <t>Salario mínimo mensual según la zona salarial</t>
+  </si>
+  <si>
+    <t>Ponderador trimestral</t>
+  </si>
+  <si>
+    <t>fac_men</t>
+  </si>
+  <si>
+    <t>Ponderador mensual</t>
+  </si>
+  <si>
+    <t>Clasificación de la población en PEA y PNEA</t>
+  </si>
+  <si>
+    <t>Clasificación de la población en ocupada y desocupada; disponible y no disponible</t>
+  </si>
+  <si>
+    <t>clase3</t>
+  </si>
+  <si>
+    <t>Clasificación de la población en ocupada plena, sin pago, ausente con nexo laboral y retorno, desocupada, iniciadora con búsqueda y ausente sin ingreso y nexo laboral</t>
+  </si>
+  <si>
+    <t>Clasificación de la población ocupada por posición en la ocupación</t>
+  </si>
+  <si>
+    <t>seg_soc</t>
+  </si>
+  <si>
+    <t>Clasificación de la población ocupada por condición de acceso a instituciones de salud</t>
+  </si>
+  <si>
+    <t>rama</t>
+  </si>
+  <si>
+    <t>Clasificación de la población ocupada por sector de actividad económica</t>
+  </si>
+  <si>
+    <t>c_ocu11c</t>
+  </si>
+  <si>
+    <t>Clasificación de la población ocupada por condición de ocupación</t>
+  </si>
+  <si>
+    <t>ing7c</t>
+  </si>
+  <si>
+    <t>Clasificación de la población ocupada por nivel de ingreso</t>
+  </si>
+  <si>
+    <t>dur9c</t>
+  </si>
+  <si>
+    <t>Clasificación de la población ocupada por la duración de la jornada</t>
+  </si>
+  <si>
+    <t>emple7c</t>
+  </si>
+  <si>
+    <t>Clasificación de la población ocupada por número de trabajadores</t>
+  </si>
+  <si>
+    <t>medica5c</t>
+  </si>
+  <si>
+    <t>Clasificación de la población ocuapda por prestaciones de salud</t>
+  </si>
+  <si>
+    <t>buscar5c</t>
+  </si>
+  <si>
+    <t>Clasificación de la población ocupada por búsqueda de otro empleo</t>
+  </si>
+  <si>
+    <t>Clasificación de la población ocuapda según sector de actividades-Totales</t>
+  </si>
+  <si>
+    <t>Clasificación de la población según sector de actividades-Subtotales</t>
+  </si>
+  <si>
+    <t>dur_est</t>
+  </si>
+  <si>
+    <t>Clasificación de la población ocupada por duración de la jornada laboral</t>
+  </si>
+  <si>
+    <t>ambito1</t>
+  </si>
+  <si>
+    <t>Clasificación de la población ocupada según el tamaño de la unidad económica-Totales</t>
+  </si>
+  <si>
+    <t>ambito2</t>
+  </si>
+  <si>
+    <t>Clasificación de la población ocupada por tamaño de la unidad económica-Subtotales</t>
+  </si>
+  <si>
+    <t>tue1</t>
+  </si>
+  <si>
+    <t>Clasificación de la población ocupada por tipo de unidad económica-Totales</t>
+  </si>
+  <si>
+    <t>tue2</t>
+  </si>
+  <si>
+    <t>Clasificación de la población ocupada por tipo de unidad económica-Subtotales</t>
+  </si>
+  <si>
+    <t>tue3</t>
+  </si>
+  <si>
+    <t>Clasificación de la población ocupada por tipo de unidad</t>
+  </si>
+  <si>
+    <t>busqueda</t>
+  </si>
+  <si>
+    <t>Clasificación de la población ocupada buscador de otro trabajo</t>
+  </si>
+  <si>
+    <t>d_ant_lab</t>
+  </si>
+  <si>
+    <t>Clasificación de la población desocupada por antecedentes</t>
+  </si>
+  <si>
+    <t>d_cexp_est</t>
+  </si>
+  <si>
+    <t>Clasificación de la población desocupada por condición de desocupación</t>
+  </si>
+  <si>
+    <t>dur_des</t>
+  </si>
+  <si>
+    <t>Clasificación de la duración del desempleo</t>
+  </si>
+  <si>
+    <t>sub_o</t>
+  </si>
+  <si>
+    <t>Población subocupada</t>
+  </si>
+  <si>
+    <t>s_clasifi</t>
+  </si>
+  <si>
+    <t>Clasificación de la población subocupada</t>
+  </si>
+  <si>
+    <t>Población subordinada y remunerada</t>
+  </si>
+  <si>
+    <t>Población subordinada y remunerada por prestaciones laborales (sin considerar el acceso a las instituciones de salud)</t>
+  </si>
+  <si>
+    <t>Clasificación de la población subordinada y remunerada por disponibilidad de contrato escrito</t>
+  </si>
+  <si>
+    <t>dispo</t>
+  </si>
+  <si>
+    <t>Población no económicamente activa disponible</t>
+  </si>
+  <si>
+    <t>nodispo</t>
+  </si>
+  <si>
+    <t>Población no económicamente activa no disponible</t>
+  </si>
+  <si>
+    <t>c_inac5c</t>
+  </si>
+  <si>
+    <t>Clasificación de la población no económicamente activa no disponible por condición de inacividad</t>
+  </si>
+  <si>
+    <t>pnea_est</t>
+  </si>
+  <si>
+    <t>Composición de la población no económicamente activa</t>
+  </si>
+  <si>
+    <t>niv_ins</t>
+  </si>
+  <si>
+    <t>Clasificación de la población de 5 años y más por nivel de instrucción</t>
+  </si>
+  <si>
+    <t>eda5c</t>
+  </si>
+  <si>
+    <t>Clasificación de la población de 15 años y más: Grupo edad 5 claves</t>
+  </si>
+  <si>
+    <t>eda7c</t>
+  </si>
+  <si>
+    <t>Clasificación de la población de 15 años y más: Grupo edad 7 claves</t>
+  </si>
+  <si>
+    <t>eda12c</t>
+  </si>
+  <si>
+    <t>Clasificación de la población de 15 años y más: Grupo edad 12 claves</t>
+  </si>
+  <si>
+    <t>eda19c</t>
+  </si>
+  <si>
+    <t>Clasificación de la población total en grupos de edad</t>
+  </si>
+  <si>
+    <t>hij5c</t>
+  </si>
+  <si>
+    <t>Clasificación de la población femenina de 15 años y más por número de hijos</t>
+  </si>
+  <si>
+    <t>domestico</t>
+  </si>
+  <si>
+    <t>Clasificación de la población de 15 años y más por condición de actividad e inactividad</t>
+  </si>
+  <si>
+    <t>anios_esc</t>
+  </si>
+  <si>
+    <t>Años de escolaridad</t>
+  </si>
+  <si>
+    <t>hrsocup</t>
+  </si>
+  <si>
+    <t>Horas trabajadas en la semana</t>
+  </si>
+  <si>
+    <t>ingocup</t>
+  </si>
+  <si>
+    <t>Ingreso mensual</t>
+  </si>
+  <si>
+    <t>ing_x_hrs</t>
+  </si>
+  <si>
+    <t>Promedio de ingreso por hora trabajada</t>
+  </si>
+  <si>
+    <t>tpg_p8a</t>
+  </si>
+  <si>
+    <t>Sí buscó trabajo</t>
+  </si>
+  <si>
+    <t>tcco</t>
+  </si>
+  <si>
+    <t>Clasificación de la población en ocupados que trabajan menos de 35 hrs., más de 35 hrs, y más de 48 hrs.</t>
+  </si>
+  <si>
+    <t>cp_anoc</t>
+  </si>
+  <si>
+    <t>Clasificación de la población cuenta propia en actividades no calificadas</t>
+  </si>
+  <si>
+    <t>imssissste</t>
+  </si>
+  <si>
+    <t>Instituciones de atención médica</t>
+  </si>
+  <si>
+    <t>ma48me1sm</t>
+  </si>
+  <si>
+    <t>Población ocupada que trabaja más de 48 horas y gana menos de 1 salario mínimo</t>
+  </si>
+  <si>
+    <t>p14apoyos</t>
+  </si>
+  <si>
+    <t>Clasificación de la población por apoyos económicos</t>
+  </si>
+  <si>
+    <t>scian</t>
+  </si>
+  <si>
+    <t>Clasificación de actividades económicas con base al sistema de clasificación industrial de América del Norte</t>
+  </si>
+  <si>
+    <t>t_tra</t>
+  </si>
+  <si>
+    <t>Total de trabajos</t>
+  </si>
+  <si>
+    <t>emp_ppal</t>
+  </si>
+  <si>
+    <t>Clasificación de empleos formales e informales de la primera actividad</t>
+  </si>
+  <si>
+    <t>tue_ppal</t>
+  </si>
+  <si>
+    <t>Tipo de unidad económica del trabajo principal</t>
+  </si>
+  <si>
+    <t>trans_ppal</t>
+  </si>
+  <si>
+    <t>Trabajadores transfronterizos del trabajo principal</t>
+  </si>
+  <si>
+    <t>mh_fil2</t>
+  </si>
+  <si>
+    <t>Filas agregadas de la matriz Hussmanns del trabajo principal</t>
+  </si>
+  <si>
+    <t>Columnas de la matriz Hussmanns del trabajo principal</t>
+  </si>
+  <si>
+    <t>Sectores institucionales del trabajo principal</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>Tipo de entrevista</t>
+  </si>
+  <si>
+    <t>mes_cal</t>
+  </si>
+  <si>
+    <t>Mes calendario</t>
+  </si>
+  <si>
+    <t>n_inf</t>
+  </si>
+  <si>
+    <t>Renglón del Informante</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>Pregunta 1 Ahora le voy a preguntar por la situación laboral de _x0085_¿La semana pasada trabajó por lo menos una hora?</t>
+  </si>
+  <si>
+    <t>p1a1</t>
+  </si>
+  <si>
+    <t>Pregunta 1a Opción 1: realizar una actividad que le proporcionó ingresos?</t>
+  </si>
+  <si>
+    <t>p1a2</t>
+  </si>
+  <si>
+    <t>Pregunta 1a Opción 2: ayudar en las tierras o en el negocio de un familiar o de otra persona?</t>
+  </si>
+  <si>
+    <t>p1a3</t>
+  </si>
+  <si>
+    <t>Pregunta 1a Opción 3: no trabajó la semana pasada</t>
+  </si>
+  <si>
+    <t>p1b</t>
+  </si>
+  <si>
+    <t>Pregunta 1b Aunque ya me dijo que ... no trabajó la semana pasada, ¿tiene algún empleo, negocio o realiza alguna actividad por su cuenta?</t>
+  </si>
+  <si>
+    <t>p1c</t>
+  </si>
+  <si>
+    <t>Pregunta 1c ¿Cuál es la razón principal por la que ... no trabajó la semana pasada?</t>
+  </si>
+  <si>
+    <t>p1d</t>
+  </si>
+  <si>
+    <t>Pregunta 1d Durante este periodo de ausencia ¿... recibe sueldo o ganancias?</t>
+  </si>
+  <si>
+    <t>p1e</t>
+  </si>
+  <si>
+    <t>Pregunta 1e ¿En cuánto tiempo regresará ... a este mismo trabajo?</t>
+  </si>
+  <si>
+    <t>p2_1</t>
+  </si>
+  <si>
+    <t>Pregunta 2 Opción 1: buscar trabajo en otro país o hacer preparativos para cruzar la frontera?</t>
+  </si>
+  <si>
+    <t>p2_2</t>
+  </si>
+  <si>
+    <t>Pregunta 2 Opción 2: buscar trabajo aquí en el país</t>
+  </si>
+  <si>
+    <t>p2_3</t>
+  </si>
+  <si>
+    <t>Pregunta 2 Opción 3: poner un negocio o realizar una actividad por su cuenta sin poder todavía comenzar?</t>
+  </si>
+  <si>
+    <t>p2_4</t>
+  </si>
+  <si>
+    <t>Pregunta 2 Opción 4: Entonces ¿no ha tratado de buscar trabajo?</t>
+  </si>
+  <si>
+    <t>p2_9</t>
+  </si>
+  <si>
+    <t>Pregunta 2 Opción 9: No sabe</t>
+  </si>
+  <si>
+    <t>p2a_dia</t>
+  </si>
+  <si>
+    <t>Pregunta 2a Día en que comenzó</t>
+  </si>
+  <si>
+    <t>p2a_sem</t>
+  </si>
+  <si>
+    <t>Pregunta 2a Semana en que comenzó</t>
+  </si>
+  <si>
+    <t>p2a_mes</t>
+  </si>
+  <si>
+    <t>Pregunta 2a Mes en que comenzó</t>
+  </si>
+  <si>
+    <t>p2a_anio</t>
+  </si>
+  <si>
+    <t>Pregunta 2a Año en que comenzó</t>
+  </si>
+  <si>
+    <t>p2b_dia</t>
+  </si>
+  <si>
+    <t>Pregunta 2b Día de la última vez</t>
+  </si>
+  <si>
+    <t>p2b_sem</t>
+  </si>
+  <si>
+    <t>Pregunta 2b Semana de la última vez</t>
+  </si>
+  <si>
+    <t>p2b_mes</t>
+  </si>
+  <si>
+    <t>Pregunta 2b Mes de la última vez</t>
+  </si>
+  <si>
+    <t>p2b_anio</t>
+  </si>
+  <si>
+    <t>Pregunta 2b Año de la última vez</t>
+  </si>
+  <si>
+    <t>p2b</t>
+  </si>
+  <si>
+    <t>Pregunta 2b ¿En qué fecha fue la última vez que ... buscó trabajo (o terminó con los preparativos para poner el negocio)?</t>
+  </si>
+  <si>
+    <t>p2c</t>
+  </si>
+  <si>
+    <t>Pregunta 2c ¿... estaba dispuesto a trabajar la semana pasada?</t>
+  </si>
+  <si>
+    <t>p2d1</t>
+  </si>
+  <si>
+    <t>Pregunta 2d Opción 1: acudió directamente al lugar de trabajo</t>
+  </si>
+  <si>
+    <t>p2d2</t>
+  </si>
+  <si>
+    <t>Pregunta 2d Opción 2: hizo trámites en una agencia o bolsa de trabajo privada</t>
+  </si>
+  <si>
+    <t>p2d3</t>
+  </si>
+  <si>
+    <t>Pregunta 2d Opción 3: hizo trámites en un servicio público de colocación</t>
+  </si>
+  <si>
+    <t>p2d4</t>
+  </si>
+  <si>
+    <t>Pregunta 2d Opción 4: hizo trámites en algún programa de empleo temporal del gobierno</t>
+  </si>
+  <si>
+    <t>p2d5</t>
+  </si>
+  <si>
+    <t>Pregunta 2d Opción 5: hizo trámites o realizó alguna actividad para iniciar un negocio por su cuenta</t>
+  </si>
+  <si>
+    <t>p2d6</t>
+  </si>
+  <si>
+    <t>Pregunta 2d Opción 6: puso o contestó un anuncio en internet</t>
+  </si>
+  <si>
+    <t>p2d7</t>
+  </si>
+  <si>
+    <t>Pregunta 2d Opción 7: puso o contestó un anuncio en algún lugar público o en medios de comunicación (periódico, radio)</t>
+  </si>
+  <si>
+    <t>p2d8</t>
+  </si>
+  <si>
+    <t>Pregunta 2d Opción 8: acudió a un sindicato o gremio</t>
+  </si>
+  <si>
+    <t>p2d9</t>
+  </si>
+  <si>
+    <t>Pregunta 2d Opción 9: pidió a conocidos o familiares que lo recomendaran o le avisaran de algún trabajo</t>
+  </si>
+  <si>
+    <t>p2d10</t>
+  </si>
+  <si>
+    <t>Pregunta 2d Opción 10: solo consultó el anuncio clasificado</t>
+  </si>
+  <si>
+    <t>p2d11</t>
+  </si>
+  <si>
+    <t>Pregunta 2d Opción 11: otra actividad</t>
+  </si>
+  <si>
+    <t>p2d99</t>
+  </si>
+  <si>
+    <t>Pregunta 2d Opción 99: no sabe</t>
+  </si>
+  <si>
+    <t>p2e</t>
+  </si>
+  <si>
+    <t>Pregunta 2e ¿... es</t>
+  </si>
+  <si>
+    <t>p2f</t>
+  </si>
+  <si>
+    <t>Pregunta 2f Actualmente, ¿... tiene necesidad de trabajar?</t>
+  </si>
+  <si>
+    <t>p2g1</t>
+  </si>
+  <si>
+    <t>Pregunta 2g ¿Hay alguna otra razón, además de ser (menciona lo que contestaron en 2e), por la que ... no esté buscando trabajo?</t>
+  </si>
+  <si>
+    <t>p2g2</t>
+  </si>
+  <si>
+    <t>Pregunta 2g Opciones de respuesta cuando P2G1=1</t>
+  </si>
+  <si>
+    <t>p2h1</t>
+  </si>
+  <si>
+    <t>Pregunta 2h Opción 1: un pago o salario?</t>
+  </si>
+  <si>
+    <t>p2h2</t>
+  </si>
+  <si>
+    <t>Pregunta 2h Opción 2: Por su cuenta?</t>
+  </si>
+  <si>
+    <t>p2h3</t>
+  </si>
+  <si>
+    <t>Pregunta 2h Opción 3: ayudando en el negocio o actividad económica de alguna persona?</t>
+  </si>
+  <si>
+    <t>p2h4</t>
+  </si>
+  <si>
+    <t>Pregunta 2h Opción 4: nunca ha trabajado</t>
+  </si>
+  <si>
+    <t>p2h9</t>
+  </si>
+  <si>
+    <t>Pregunta 2h Opción 9: no sabe</t>
+  </si>
+  <si>
+    <t>p2i</t>
+  </si>
+  <si>
+    <t>Pregunta 2i La última vez que ... se quedó sin trabajo, ¿cuál era la situación?</t>
+  </si>
+  <si>
+    <t>p2j</t>
+  </si>
+  <si>
+    <t>Pregunta 2j En esa ocasión</t>
+  </si>
+  <si>
+    <t>p2k_anio</t>
+  </si>
+  <si>
+    <t>Pregunta 2k ¿En qué año _x0085_ terminó (o suspendió) ese trabajo u oficio?</t>
+  </si>
+  <si>
+    <t>p2k_mes</t>
+  </si>
+  <si>
+    <t>Pregunta 2k (Anota el mes si se trata del año en curso o del año pasado)</t>
+  </si>
+  <si>
+    <t>p2k</t>
+  </si>
+  <si>
+    <t>Pregunta 2k (Clasifica si se trata del año en curso o del año pasado)</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>Pregunta 3 Si_x0085_tiene más de un trabajo, hablemos del principal. ¿Cuáles son las tareas o funciones principales que_x0085_desempeña en su trabajo?</t>
+  </si>
+  <si>
+    <t>p3a</t>
+  </si>
+  <si>
+    <t>Pregunta 3a ¿En su trabajo ... tiene un jefe(a) o superior?</t>
+  </si>
+  <si>
+    <t>p3b</t>
+  </si>
+  <si>
+    <t>Pregunta 3b Entonces, ¿... se dedica a un negocio o actividad por su cuenta?</t>
+  </si>
+  <si>
+    <t>p3c1</t>
+  </si>
+  <si>
+    <t>Pregunta 3c Opción 1: a una sola empresa, negocio o intermediario?</t>
+  </si>
+  <si>
+    <t>p3c2</t>
+  </si>
+  <si>
+    <t>Pregunta 3c Opción 2: a varios negocios, empresas o intermediarios?</t>
+  </si>
+  <si>
+    <t>p3c3</t>
+  </si>
+  <si>
+    <t>Pregunta 3c Opción 3: directamente al público?</t>
+  </si>
+  <si>
+    <t>p3c4</t>
+  </si>
+  <si>
+    <t>Pregunta 3c Opción 4: es autoconsumo agropecuario</t>
+  </si>
+  <si>
+    <t>p3c9</t>
+  </si>
+  <si>
+    <t>Pregunta 3c Opción 9: no sabe</t>
+  </si>
+  <si>
+    <t>p3d</t>
+  </si>
+  <si>
+    <t>Pregunta 3d ¿... tiene empleados o le ayudan personas en su negocio o actividad?</t>
+  </si>
+  <si>
+    <t>p3e</t>
+  </si>
+  <si>
+    <t>Pregunta 3e ¿... tiene</t>
+  </si>
+  <si>
+    <t>p3f1</t>
+  </si>
+  <si>
+    <t>Pregunta 3f ¿Cuántos puestos o establecimientos (o en su caso vehículos) forman este negocio o empresa?</t>
+  </si>
+  <si>
+    <t>p3f2</t>
+  </si>
+  <si>
+    <t>Pregunta 3f ¿Más de uno?, ¿Cuántos?</t>
+  </si>
+  <si>
+    <t>p3g1_2</t>
+  </si>
+  <si>
+    <t>Pregunta 3g Número de trabajadores con pago</t>
+  </si>
+  <si>
+    <t>p3g2_1</t>
+  </si>
+  <si>
+    <t>Pregunta 3g Opción 2: socios?</t>
+  </si>
+  <si>
+    <t>p3g2_2</t>
+  </si>
+  <si>
+    <t>Pregunta 3g Número de socios</t>
+  </si>
+  <si>
+    <t>p3g3_1</t>
+  </si>
+  <si>
+    <t>Pregunta 3g Opción 3: trabajadores sin pago?</t>
+  </si>
+  <si>
+    <t>p3g3_2</t>
+  </si>
+  <si>
+    <t>Pregunta 3g Número de trabajadores sin pago</t>
+  </si>
+  <si>
+    <t>p3g4_1</t>
+  </si>
+  <si>
+    <t>Pregunta 3g Opción 4: no sabe qué tipo de trabajadores son</t>
+  </si>
+  <si>
+    <t>p3g4_2</t>
+  </si>
+  <si>
+    <t>Pregunta 3g Número de trabajadores sin tipo</t>
+  </si>
+  <si>
+    <t>p3g9</t>
+  </si>
+  <si>
+    <t>Pregunta 3g Opción 9: no sabe</t>
+  </si>
+  <si>
+    <t>p3g_tot</t>
+  </si>
+  <si>
+    <t>Pregunta 3g total Sumatoria de número de trabajadores</t>
+  </si>
+  <si>
+    <t>p3h</t>
+  </si>
+  <si>
+    <t>Pregunta 3h ¿En este trabajo ...</t>
+  </si>
+  <si>
+    <t>p3i</t>
+  </si>
+  <si>
+    <t>Pregunta 3i ¿En este empleo ... cuenta con un contrato por escrito?</t>
+  </si>
+  <si>
+    <t>p3j1</t>
+  </si>
+  <si>
+    <t>Pregunta 3j ¿El contrato de _x0085_ es</t>
+  </si>
+  <si>
+    <t>p3j2</t>
+  </si>
+  <si>
+    <t>Pregunta 3j Desglose de contrato temporal</t>
+  </si>
+  <si>
+    <t>p3k1</t>
+  </si>
+  <si>
+    <t>Pregunta 3k Opción 1: aguinaldo?</t>
+  </si>
+  <si>
+    <t>p3k2</t>
+  </si>
+  <si>
+    <t>Pregunta 3k Opción 2: vacaciones con goce de sueldo?</t>
+  </si>
+  <si>
+    <t>p3k3</t>
+  </si>
+  <si>
+    <t>Pregunta 3k Opción 3: reparto de utilidades?</t>
+  </si>
+  <si>
+    <t>p3k4</t>
+  </si>
+  <si>
+    <t>Pregunta 3k Opción 4: ninguna de las anteriores</t>
+  </si>
+  <si>
+    <t>p3k5</t>
+  </si>
+  <si>
+    <t>Pregunta 3k Opción 5: no le dan nada</t>
+  </si>
+  <si>
+    <t>p3k9</t>
+  </si>
+  <si>
+    <t>Pregunta 3k Opción 9: no sabe</t>
+  </si>
+  <si>
+    <t>p3l</t>
+  </si>
+  <si>
+    <t>Pregunta 3l ¿Aproximadamente cuántas personas, incluyendo al dueño, laboran donde trabaja ...?</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>Pregunta 4 ¿Cuál es el nombre de la empresa, negocio o institución para la que ... trabaja o ayuda?</t>
+  </si>
+  <si>
+    <t>p4_1</t>
+  </si>
+  <si>
+    <t>Pregunta 4 Campo exclusivo del sistema</t>
+  </si>
+  <si>
+    <t>p4_2</t>
+  </si>
+  <si>
+    <t>p4_3</t>
+  </si>
+  <si>
+    <t>p4a</t>
+  </si>
+  <si>
+    <t>Pregunta 4a ¿A qué se dedica esta empresa, negocio o institución?</t>
+  </si>
+  <si>
+    <t>p4a_1</t>
+  </si>
+  <si>
+    <t>Pregunta 4a Campo exclusivo del sistema</t>
+  </si>
+  <si>
+    <t>p4c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 4c Entonces, ¿estamos hablando de que este negocio es _x0085_ </t>
+  </si>
+  <si>
+    <t>p4d1</t>
+  </si>
+  <si>
+    <t>Pregunta 4d Entonces, ¿ _x0085_ trabaja para</t>
+  </si>
+  <si>
+    <t>p4d2</t>
+  </si>
+  <si>
+    <t>Pregunta 4d Opciones de respuesta cuando</t>
+  </si>
+  <si>
+    <t>p4d3</t>
+  </si>
+  <si>
+    <t>Pregunta 4d Campo exclusivo del sistema</t>
+  </si>
+  <si>
+    <t>p4e</t>
+  </si>
+  <si>
+    <t>Pregunta 4e ¿El negocio o actividad</t>
+  </si>
+  <si>
+    <t>p4g</t>
+  </si>
+  <si>
+    <t>Pregunta 4g En este negocio o actividad</t>
+  </si>
+  <si>
+    <t>p4h</t>
+  </si>
+  <si>
+    <t>Pregunta 4h ¿Normalmente en qué lugar trabaja ... ?</t>
+  </si>
+  <si>
+    <t>p4i</t>
+  </si>
+  <si>
+    <t>Pregunta 4i La empresa a la que pertenece ... ¿tiene oficinas o establecimientos</t>
+  </si>
+  <si>
+    <t>p4i_1</t>
+  </si>
+  <si>
+    <t>Pregunta 4i Campo exclusivo del sistema</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>Pregunta 5 La semana pasada, ¿... tuvo poco trabajo que hacer?</t>
+  </si>
+  <si>
+    <t>p5a</t>
+  </si>
+  <si>
+    <t>Pregunta 5a ¿Le preocupa a ... esta situación?</t>
+  </si>
+  <si>
+    <t>p5b_hlu</t>
+  </si>
+  <si>
+    <t>Pregunta 5b Horas lunes</t>
+  </si>
+  <si>
+    <t>p5b_mlu</t>
+  </si>
+  <si>
+    <t>Pregunta 5b Minutos lunes</t>
+  </si>
+  <si>
+    <t>p5b_hma</t>
+  </si>
+  <si>
+    <t>Pregunta 5b Horas martes</t>
+  </si>
+  <si>
+    <t>p5b_mma</t>
+  </si>
+  <si>
+    <t>Pregunta 5b Minutos martes</t>
+  </si>
+  <si>
+    <t>p5b_hmi</t>
+  </si>
+  <si>
+    <t>Pregunta 5b Horas miércoles</t>
+  </si>
+  <si>
+    <t>p5b_mmi</t>
+  </si>
+  <si>
+    <t>Pregunta 5b Minutos miércoles</t>
+  </si>
+  <si>
+    <t>p5b_hju</t>
+  </si>
+  <si>
+    <t>Pregunta 5b Horas jueves</t>
+  </si>
+  <si>
+    <t>p5b_mju</t>
+  </si>
+  <si>
+    <t>Pregunta 5b Minutos jueves</t>
+  </si>
+  <si>
+    <t>p5b_hvi</t>
+  </si>
+  <si>
+    <t>Pregunta 5b Horas viernes</t>
+  </si>
+  <si>
+    <t>p5b_mvi</t>
+  </si>
+  <si>
+    <t>Pregunta 5b Minutos viernes</t>
+  </si>
+  <si>
+    <t>p5b_hsa</t>
+  </si>
+  <si>
+    <t>Pregunta 5b Horas sábado</t>
+  </si>
+  <si>
+    <t>p5b_msa</t>
+  </si>
+  <si>
+    <t>Pregunta 5b Minutos sábado</t>
+  </si>
+  <si>
+    <t>p5b_hdo</t>
+  </si>
+  <si>
+    <t>Pregunta 5b Horas domingo</t>
+  </si>
+  <si>
+    <t>p5b_mdo</t>
+  </si>
+  <si>
+    <t>Pregunta 5b Minutos domingo</t>
+  </si>
+  <si>
+    <t>p5b_thrs</t>
+  </si>
+  <si>
+    <t>Pregunta 5b Total de horas</t>
+  </si>
+  <si>
+    <t>p5b_tdia</t>
+  </si>
+  <si>
+    <t>Pregunta 5b Total de días (campo adicional contenido en la base de datos)</t>
+  </si>
+  <si>
+    <t>p5c</t>
+  </si>
+  <si>
+    <t>Pregunta 5c ¿Ese es el número de horas que habitualmente trabaja ...?</t>
+  </si>
+  <si>
+    <t>p5d1</t>
+  </si>
+  <si>
+    <t>Pregunta 5d Horas y minutos o no tiene horario regular de trabajo</t>
+  </si>
+  <si>
+    <t>p5d_hlu</t>
+  </si>
+  <si>
+    <t>Pregunta 5d Horas lunes</t>
+  </si>
+  <si>
+    <t>p5d_mlu</t>
+  </si>
+  <si>
+    <t>Pregunta 5d Minutos lunes</t>
+  </si>
+  <si>
+    <t>p5d_hma</t>
+  </si>
+  <si>
+    <t>p5d_mma</t>
+  </si>
+  <si>
+    <t>Pregunta 5d Minutos martes</t>
+  </si>
+  <si>
+    <t>p5d_hmi</t>
+  </si>
+  <si>
+    <t>Pregunta 5d Horas miércoles</t>
+  </si>
+  <si>
+    <t>p5d_mmi</t>
+  </si>
+  <si>
+    <t>Pregunta 5d Minutos miércoles</t>
+  </si>
+  <si>
+    <t>p5d_hju</t>
+  </si>
+  <si>
+    <t>Pregunta 5d Horas jueves</t>
+  </si>
+  <si>
+    <t>p5d_mju</t>
+  </si>
+  <si>
+    <t>Pregunta 5d Minutos jueves</t>
+  </si>
+  <si>
+    <t>p5d_hvi</t>
+  </si>
+  <si>
+    <t>Pregunta 5d Horas viernes</t>
+  </si>
+  <si>
+    <t>p5d_mvi</t>
+  </si>
+  <si>
+    <t>Pregunta 5d Minutos viernes</t>
+  </si>
+  <si>
+    <t>p5d_hsa</t>
+  </si>
+  <si>
+    <t>Pregunta 5d Horas sábado</t>
+  </si>
+  <si>
+    <t>p5d_msa</t>
+  </si>
+  <si>
+    <t>Pregunta 5d Minutos sábado</t>
+  </si>
+  <si>
+    <t>p5d_hdo</t>
+  </si>
+  <si>
+    <t>Pregunta 5d Horas domingo</t>
+  </si>
+  <si>
+    <t>p5d_mdo</t>
+  </si>
+  <si>
+    <t>Pregunta 5d Minutos domingo</t>
+  </si>
+  <si>
+    <t>p5d_thrs</t>
+  </si>
+  <si>
+    <t>Pregunta 5d Total de horas</t>
+  </si>
+  <si>
+    <t>p5d_tdia</t>
+  </si>
+  <si>
+    <t>Pregunta 5d Total de días (campo adicional contenido en la base de datos)</t>
+  </si>
+  <si>
+    <t>p5e</t>
+  </si>
+  <si>
+    <t>Pregunta 5e ¿Cuál es el motivo principal por el que la semana pasada ... no trabajó las horas habituales?</t>
+  </si>
+  <si>
+    <t>p6_1</t>
+  </si>
+  <si>
+    <t>Pregunta 6 Opción 1: por comisión?</t>
+  </si>
+  <si>
+    <t>p6_2</t>
+  </si>
+  <si>
+    <t>Pregunta 6 Opción 2: a destajo (por pieza), servicio u obra realizada?</t>
+  </si>
+  <si>
+    <t>p6_3</t>
+  </si>
+  <si>
+    <t>Pregunta 6 Opción 3: por honorarios?</t>
+  </si>
+  <si>
+    <t>p6_4</t>
+  </si>
+  <si>
+    <t>Pregunta 6 Opción 4: con propinas?</t>
+  </si>
+  <si>
+    <t>p6_5</t>
+  </si>
+  <si>
+    <t>Pregunta 6 Opción 5: con bonos de compensación o de productividad?</t>
+  </si>
+  <si>
+    <t>p6_6</t>
+  </si>
+  <si>
+    <t>Pregunta 6 Opción 6: con vales o productos comercializables?</t>
+  </si>
+  <si>
+    <t>p6_7</t>
+  </si>
+  <si>
+    <t>Pregunta 6 Opción 7: Solo recibe sueldo, salario o jornal</t>
+  </si>
+  <si>
+    <t>p6_8</t>
+  </si>
+  <si>
+    <t>Pregunta 6 Opción 8: Solo lo que le deja su negocio</t>
+  </si>
+  <si>
+    <t>p6_9</t>
+  </si>
+  <si>
+    <t>Pregunta 6 Opción 9: no le pagan ni recibe ingresos (incluye autoconsumo agropecuario)</t>
+  </si>
+  <si>
+    <t>p6_10</t>
+  </si>
+  <si>
+    <t>Pregunta 6 Opción 10: ninguna de las anteriores</t>
+  </si>
+  <si>
+    <t>p6_99</t>
+  </si>
+  <si>
+    <t>Pregunta 6 Opción 99: no sabe</t>
+  </si>
+  <si>
+    <t>p6a1</t>
+  </si>
+  <si>
+    <t>Pregunta 6a Opción 1: a sueldo, salario o jornal?</t>
+  </si>
+  <si>
+    <t>p6a2</t>
+  </si>
+  <si>
+    <t>Pregunta 6a Opción 2: por ganancias o de lo que deja su negocio?</t>
+  </si>
+  <si>
+    <t>p6a3</t>
+  </si>
+  <si>
+    <t>Pregunta 6a Opción 3: no le pagan ni recibe ingresos (incluye autoconsumo agropecuario)</t>
+  </si>
+  <si>
+    <t>p6a4</t>
+  </si>
+  <si>
+    <t>Pregunta 6a Opción 4: ninguna de las anteriores</t>
+  </si>
+  <si>
+    <t>p6a9</t>
+  </si>
+  <si>
+    <t>Pregunta 6a Opción 9: no sabe</t>
+  </si>
+  <si>
+    <t>p6b1</t>
+  </si>
+  <si>
+    <t>Pregunta 6b ¿Cada cuándo obtiene ... sus ingresos o le pagan?</t>
+  </si>
+  <si>
+    <t>p6b2</t>
+  </si>
+  <si>
+    <t>Pregunta 6b Cantidad en  pesos</t>
+  </si>
+  <si>
+    <t>p6c</t>
+  </si>
+  <si>
+    <t>Pregunta 6c Actualmente el salario mínimo mensual es de $ , ¿la cantidad que ... Obtiene al mes por su trabajo es</t>
+  </si>
+  <si>
+    <t>p6d</t>
+  </si>
+  <si>
+    <t>Pregunta 6d Por parte de este trabajo ¿... tiene acceso a atención médica en</t>
+  </si>
+  <si>
+    <t>p6e</t>
+  </si>
+  <si>
+    <t>Pregunta 6e ¿En qué municipio (alcaldía) está el negocio, empresa o lugar donde trabajó ... la semana pasada?</t>
+  </si>
+  <si>
+    <t>p6e_c</t>
+  </si>
+  <si>
+    <t>Pregunta 6e Clave del municipio (alcaldía) donde está el negocio, empresa o lugar donde trabajó ... la semana pasada</t>
+  </si>
+  <si>
+    <t>p6f</t>
+  </si>
+  <si>
+    <t>Pregunta 6f ¿En qué estado o país?</t>
+  </si>
+  <si>
+    <t>p6f_c</t>
+  </si>
+  <si>
+    <t>Pregunta 6f Clave del estado o país</t>
+  </si>
+  <si>
+    <t>p6g</t>
+  </si>
+  <si>
+    <t>Pregunta 6g ¿El lugar donde trabajó ... la semana pasada, es el mismo donde está el negocio, la empresa o el lugar para el que trabaja?</t>
+  </si>
+  <si>
+    <t>p6h</t>
+  </si>
+  <si>
+    <t>Pregunta 6h ¿En qué municipio (alcaldía) está el negocio, empresa o el lugar para la que trabaja ...?</t>
+  </si>
+  <si>
+    <t>p6h_c</t>
+  </si>
+  <si>
+    <t>Pregunta 6h Clave del municipio (alcaldía) donde está el negocio, empresa o el lugar para la que trabaja ...</t>
+  </si>
+  <si>
+    <t>p6i</t>
+  </si>
+  <si>
+    <t>Pregunta 6i ¿En qué estado o país?</t>
+  </si>
+  <si>
+    <t>p6i_c</t>
+  </si>
+  <si>
+    <t>Pregunta 6i Clave del estado o país</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>Pregunta 7 Además del trabajo principal del que ya hablamos, ¿... tiene o realiza otra actividad como</t>
+  </si>
+  <si>
+    <t>p7a</t>
+  </si>
+  <si>
+    <t>Pregunta 7a ¿Cuáles son las tareas o funciones principales que _x0085_ desempeña en su segundo trabajo?</t>
+  </si>
+  <si>
+    <t>p7b</t>
+  </si>
+  <si>
+    <t>Pregunta 7b ¿Cuál es el nombre de la empresa, negocio o institución para la que ... realiza este otro trabajo?</t>
+  </si>
+  <si>
+    <t>p7c</t>
+  </si>
+  <si>
+    <t>Pregunta 7c ¿A qué se dedica esta empresa, negocio o institución donde trabaja o ayuda ... en su segundo trabajo?</t>
+  </si>
+  <si>
+    <t>p8_1</t>
+  </si>
+  <si>
+    <t>Pregunta 8 Opción 1: buscar otro trabajo en otro país o hacer preparativos para cruzar la frontera?</t>
+  </si>
+  <si>
+    <t>p8_2</t>
+  </si>
+  <si>
+    <t>Pregunta 8 Opción 2: buscar otro trabajo aquí en el país?</t>
+  </si>
+  <si>
+    <t>p8_3</t>
+  </si>
+  <si>
+    <t>Pregunta 8 Opción 3: poner un negocio o realizar una actividad por su cuenta, sin poder todavía comenzar?</t>
+  </si>
+  <si>
+    <t>p8_4</t>
+  </si>
+  <si>
+    <t>Pregunta 8 Opción 4: entonces, ¿no ha tratado de buscar otro trabajo?</t>
+  </si>
+  <si>
+    <t>p8_9</t>
+  </si>
+  <si>
+    <t>Pregunta 8 Opción 9: no sabe</t>
+  </si>
+  <si>
+    <t>p8a</t>
+  </si>
+  <si>
+    <t>Pregunta 8a Lo que ... intenta ¿es</t>
+  </si>
+  <si>
+    <t>p9_1</t>
+  </si>
+  <si>
+    <t>Pregunta 9 Opción 1: estudiar o tomar cursos de capacitación?</t>
+  </si>
+  <si>
+    <t>p9_h1</t>
+  </si>
+  <si>
+    <t>Pregunta 9 Horas</t>
+  </si>
+  <si>
+    <t>p9_m1</t>
+  </si>
+  <si>
+    <t>Pregunta 9 Minutos</t>
+  </si>
+  <si>
+    <t>p9_2</t>
+  </si>
+  <si>
+    <t>Pregunta 9 Opción 2: cuidar o atender sin pago, de manera exclusiva a niños, ancianos, enfermos o discapacitados?</t>
+  </si>
+  <si>
+    <t>p9_h2</t>
+  </si>
+  <si>
+    <t>p9_m2</t>
+  </si>
+  <si>
+    <t>p9_3</t>
+  </si>
+  <si>
+    <t>Pregunta 9 Opción 3: realizar compras, llevar cuentas o realizar trámites para el hogar o encargarse de la seguridad?</t>
+  </si>
+  <si>
+    <t>p9_h3</t>
+  </si>
+  <si>
+    <t>p9_m3</t>
+  </si>
+  <si>
+    <t>p9_4</t>
+  </si>
+  <si>
+    <t>Pregunta 9 Opción 4: llevar a algún miembro del hogar a la escuela, cita médica u otra actividad?</t>
+  </si>
+  <si>
+    <t>p9_h4</t>
+  </si>
+  <si>
+    <t>p9_m4</t>
+  </si>
+  <si>
+    <t>p9_5</t>
+  </si>
+  <si>
+    <t>Pregunta 9 Opción 5: construir o ampliar su vivienda?</t>
+  </si>
+  <si>
+    <t>p9_h5</t>
+  </si>
+  <si>
+    <t>p9_m5</t>
+  </si>
+  <si>
+    <t>p9_6</t>
+  </si>
+  <si>
+    <t>Pregunta 9 Opción 6: reparar o dar mantenimiento a su vivienda, muebles, aparatos electrodomésticos o vehículos?</t>
+  </si>
+  <si>
+    <t>p9_h6</t>
+  </si>
+  <si>
+    <t>p9_m6</t>
+  </si>
+  <si>
+    <t>p9_7</t>
+  </si>
+  <si>
+    <t>Pregunta 9 Opción 7: realizar los quehaceres de su hogar?</t>
+  </si>
+  <si>
+    <t>p9_h7</t>
+  </si>
+  <si>
+    <t>p9_m7</t>
+  </si>
+  <si>
+    <t>p9_8</t>
+  </si>
+  <si>
+    <t>Pregunta 9 Opción 8: prestar servicios gratuitos a su comunidad?</t>
+  </si>
+  <si>
+    <t>p9_h8</t>
+  </si>
+  <si>
+    <t>p9_m8</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Año de levantamient</t>
   </si>
 </sst>
 </file>
@@ -4273,6 +6174,14 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -16452,4 +18361,2949 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="3" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="3" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="3" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="3" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="3" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="3" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="3" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="3" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="3" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="3" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="3" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="3" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="3" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="3" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="3" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="3" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="3" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="3" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="3" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="3" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="3" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="3" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="3" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="3" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="3" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="3" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="3" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="3" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="3" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="3" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="3" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="3" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="3" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="3" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="3" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="3" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="3" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="3" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="3" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="3" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="3" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="3" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="3" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="3" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="3" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="3" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="3" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="3" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="3" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="3" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="3" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="3" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="3" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="3" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="3" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="3" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="3" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="3" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="3" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="3" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="3" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="3" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="3" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="3" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="3" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="3" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="3" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="3" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="3" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="3" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="3" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="3" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="3" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="3" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="3" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="3" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="3" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="3" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="3" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="3" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="3" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="3" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="3" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="3" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="3" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="3" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="3" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="3" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="3" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="3" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="3" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="3" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="3" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="3" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="3" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="3" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="3" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="3" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="3" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="3" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Tasas/Utils/Utils.xlsx
+++ b/Tasas/Utils/Utils.xlsx
@@ -10,6 +10,7 @@
     <sheet state="visible" name="import" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="df.factors" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="labels" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="sd_cs" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4289" uniqueCount="2026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4295" uniqueCount="2029">
   <si>
     <t>id</t>
   </si>
@@ -5485,7 +5486,7 @@
     <t>p4c</t>
   </si>
   <si>
-    <t xml:space="preserve">Pregunta 4c Entonces, ¿estamos hablando de que este negocio es _x0085_ </t>
+    <t>Pregunta 4c Entonces, ¿estamos hablando de que este negocio es _x0085_</t>
   </si>
   <si>
     <t>p4d1</t>
@@ -6094,7 +6095,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>Año de levantamient</t>
+    <t>Año de levantamiento</t>
+  </si>
+  <si>
+    <t>p4d2_1</t>
+  </si>
+  <si>
+    <t>https://github.com/AlfCano/enoe/raw/devel/Tasas/Utils/meta_sd_cs.RData</t>
+  </si>
+  <si>
+    <t>sd.cs</t>
   </si>
 </sst>
 </file>
@@ -6182,6 +6192,10 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -18301,6 +18315,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="98.63"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -21303,6 +21320,48 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" s="3" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2028</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
